--- a/trend_results/Rivers/MangaatuaatdsWoodvilleSTP_95cf3dddd1.xlsx
+++ b/trend_results/Rivers/MangaatuaatdsWoodvilleSTP_95cf3dddd1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.974931065783284</v>
+        <v>0.025068934216716</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.939434604602199</v>
+        <v>0.060565395397801</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.99941138435453</v>
+        <v>0.0005886156454699</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.99668123955528</v>
+        <v>0.00331876044472</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.110335680959923</v>
+        <v>2.93191769895618e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0067567567567567</v>
       </c>
       <c r="H28" t="n">
+        <v>0.601351351351351</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>0.441</v>
+        <v>1.254</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.06867702069004721</v>
+        <v>-0.0834202866099418</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.113645875347977</v>
+        <v>-0.113318958569362</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.001717144430008</v>
+        <v>-0.0508810374397998</v>
       </c>
       <c r="N28" t="n">
-        <v>-15.5730205646366</v>
+        <v>-6.65233545533826</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2993,7 +2993,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3003,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3018,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.231216363225238</v>
+        <v>2.2918600350863e-10</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.857954545454545</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>106.4</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.36680513525483</v>
+        <v>-0.095326236263736</v>
       </c>
       <c r="L29" t="n">
-        <v>-15.338453254909</v>
+        <v>-0.117413747470996</v>
       </c>
       <c r="M29" t="n">
-        <v>2.80588705827721</v>
+        <v>-0.06693699553000811</v>
       </c>
       <c r="N29" t="n">
-        <v>-3.16429054065303</v>
+        <v>-0.964840448013522</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3080,7 +3084,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3090,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3105,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.231216363225238</v>
+        <v>0.0427118227745455</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.340782122905028</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>5.91</v>
+        <v>0.027</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.325964975179261</v>
+        <v>0.0003330041104088</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.16305218431762</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.117595812925339</v>
+        <v>0.0006622581746099</v>
       </c>
       <c r="N30" t="n">
-        <v>-5.51548181352387</v>
+        <v>1.23334855706992</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3167,7 +3175,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3177,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3192,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.087654040404137</v>
+        <v>0.0369084035489591</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.737430167597765</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.468</v>
+        <v>517</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0103223906143732</v>
+        <v>12.3192798541477</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0304539872671452</v>
+        <v>0.645672729643288</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0029573145646694</v>
+        <v>25.7563180024351</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.2056390201652</v>
+        <v>2.38283943020265</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3254,7 +3266,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3264,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.393807883351103</v>
+        <v>2.22409412149164e-05</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.329411764705882</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9</v>
+        <v>0.6882352941176469</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>105.7</v>
+        <v>0.0218639147846311</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.508350730688935</v>
+        <v>0.001241511735948</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.69855443789247</v>
+        <v>0.0002362856753463</v>
       </c>
       <c r="M32" t="n">
-        <v>1.0109444248786</v>
+        <v>0.0020038274887911</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.480937304341471</v>
+        <v>5.67835974562421</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3312,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3341,7 +3357,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3351,11 +3371,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3366,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.541517381685568</v>
+        <v>1.9266083396564e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.114649681528662</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.152866242038217</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>5.91</v>
+        <v>0.008</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0473808106881953</v>
+        <v>0.0004393984962406</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.189557165736091</v>
+        <v>0.000260588525462</v>
       </c>
       <c r="M33" t="n">
-        <v>0.253535443317207</v>
+        <v>0.0006113249423357</v>
       </c>
       <c r="N33" t="n">
-        <v>0.801705764605673</v>
+        <v>5.49248120300752</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3399,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3428,7 +3448,1075 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.293637595036015</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8625</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.4589</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0020068681318681</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0054767445846561</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0070835144441928</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.437321449524543</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.223963226435696</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0045770676691728</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0139111644750809</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.005205738273463</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.0611907442402785</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0566238752246717</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0223463687150838</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.860335195530726</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.004670350227256</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0109037470257522</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.949258176271552</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0009866475761340001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.726256983240223</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0152453249661298</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0064726975030434</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0241512605105853</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.81491963882497</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.68295617795614e-06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5418994413407821</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0021645847113717</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0013087306330242</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0029816326530612</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.43584874820908</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0421914370862032</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9269662921348319</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.109325022729618</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0125135422576818</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.177999812937209</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.52482731477177</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.06867702069004721</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.113645875347977</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.001717144430008</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-15.5730205646366</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-3.36680513525483</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-15.338453254909</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.80588705827721</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-3.16429054065303</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.325964975179261</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-1.16305218431762</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.117595812925339</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-5.51548181352387</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.087654040404137</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0103223906143732</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0304539872671452</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0029573145646694</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-2.2056390201652</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.393807883351103</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.508350730688935</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-1.69855443789247</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.0109444248786</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.480937304341471</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.541517381685568</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0473808106881953</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.189557165736091</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.253535443317207</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.801705764605673</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangaatuaatdsWoodvilleSTP_95cf3dddd1.xlsx
+++ b/trend_results/Rivers/MangaatuaatdsWoodvilleSTP_95cf3dddd1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.143340746065127</v>
+        <v>0.0031406164238839</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.914285714285714</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.110954433497537</v>
+        <v>-0.270302107728337</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.248445059015993</v>
+        <v>-0.360244097896301</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0401767031260864</v>
+        <v>-0.130645953404833</v>
       </c>
       <c r="N2" t="n">
-        <v>-12.4667902806221</v>
+        <v>-39.7503099600496</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.025068934216716</v>
+        <v>0.040427799185026</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.966101694915254</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>9.57</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.137303228021978</v>
+        <v>-0.091129483723824</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.22000521435314</v>
+        <v>-0.172566049988142</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0345424063297779</v>
+        <v>-0.0068275229606887</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.43472547567375</v>
+        <v>-0.952241209235361</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0329538097401599</v>
+        <v>0.152044660990889</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.610169491525424</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0.03</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0027176339285714</v>
+        <v>0.0012423469387755</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.0005559287942902</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0047435064935064</v>
+        <v>0.0037956868777465</v>
       </c>
       <c r="N4" t="n">
-        <v>9.058779761904759</v>
+        <v>4.14115646258504</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.366875315744838</v>
+        <v>0.559790136852505</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H5" t="n">
-        <v>0.796610169491525</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>640</v>
+        <v>420</v>
       </c>
       <c r="K5" t="n">
-        <v>15.9323882224646</v>
+        <v>-6.49111414900889</v>
       </c>
       <c r="L5" t="n">
-        <v>-56.6665331284737</v>
+        <v>-65.900945742586</v>
       </c>
       <c r="M5" t="n">
-        <v>98.47633555316339</v>
+        <v>59.6697669267198</v>
       </c>
       <c r="N5" t="n">
-        <v>2.48943565976009</v>
+        <v>-1.54550336881164</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.173073690250242</v>
+        <v>0.0465222392856336</v>
       </c>
       <c r="G6" t="n">
-        <v>0.153846153846154</v>
+        <v>0.145454545454545</v>
       </c>
       <c r="H6" t="n">
-        <v>0.865384615384615</v>
+        <v>0.872727272727273</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0327494125012408</v>
+        <v>0.0344960531805542</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0017500696266686</v>
+        <v>0.0041882575485919</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0011297308219553</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005608262254435</v>
+        <v>0.009191038778227901</v>
       </c>
       <c r="N6" t="n">
-        <v>5.34381991311231</v>
+        <v>12.1412659201052</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.133712145274226</v>
+        <v>0.128050741168272</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H7" t="n">
-        <v>0.338983050847458</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1043,16 +1043,16 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004787024901703</v>
+        <v>0.0004969387755102</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0012110519579329</v>
+        <v>0.0011343167701863</v>
       </c>
       <c r="N7" t="n">
-        <v>5.31891655744866</v>
+        <v>5.52154195011338</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.025068934216716</v>
+        <v>0.0299659701639453</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H8" t="n">
-        <v>0.949152542372881</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.37</v>
+        <v>0.348</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0340862017418432</v>
+        <v>0.0182682613439192</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0014157931690906</v>
+        <v>0.0017650806648071</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0612346244664982</v>
+        <v>0.0395372885756075</v>
       </c>
       <c r="N8" t="n">
-        <v>9.21248695725493</v>
+        <v>5.24950038618369</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.060565395397801</v>
+        <v>0.101118155187692</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.810344827586207</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.48</v>
+        <v>7.46</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0318647764449291</v>
+        <v>-0.0289880952380972</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0716404347226044</v>
+        <v>-0.06957676830399941</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0001465345857909</v>
+        <v>0.008567724130204899</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.425999685092636</v>
+        <v>-0.388580365121946</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.949152542372881</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1312,16 +1312,16 @@
         <v>0.492</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0475762993729076</v>
+        <v>0.0299951765506153</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0011606597744196</v>
+        <v>0.0008899295396127</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0767704344792606</v>
+        <v>0.0613856462366846</v>
       </c>
       <c r="N10" t="n">
-        <v>9.66997954733894</v>
+        <v>6.09658059971856</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.249296662887582</v>
+        <v>0.0341280451284221</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.423728813559322</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>0.89</v>
       </c>
       <c r="K11" t="n">
-        <v>0.252244475138122</v>
+        <v>0.0395161891679749</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.368850069816856</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.15952380952381</v>
+        <v>0.0728967552135604</v>
       </c>
       <c r="N11" t="n">
-        <v>5.04488950276243</v>
+        <v>4.44002125482864</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.212428317639825</v>
+        <v>0.143145454274385</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.847457627118644</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0261546723952739</v>
+        <v>0.0034403453689168</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0216759499528276</v>
+        <v>-0.001617063884123</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0748709504264482</v>
+        <v>0.0085743620318262</v>
       </c>
       <c r="N12" t="n">
-        <v>2.78241195694403</v>
+        <v>5.05933142487764</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.17990582812339</v>
+        <v>0.193973163186924</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.830508474576271</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.076</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0038650793650793</v>
+        <v>0.268139880952381</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0033930902627924</v>
+        <v>-0.22771963148931</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0095644717905796</v>
+        <v>0.752412601249152</v>
       </c>
       <c r="N13" t="n">
-        <v>5.08563074352548</v>
+        <v>6.23581118493909</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.544265079871455</v>
+        <v>1.72989245980082e-05</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.932203389830508</v>
+        <v>0.802325581395349</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.42</v>
+        <v>1.09</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.021485294117647</v>
+        <v>-0.135147200772201</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.5429421194808161</v>
+        <v>-0.173928571428571</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5195174759257229</v>
+        <v>-0.08348899539376541</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.486092627096086</v>
+        <v>-12.3988257589175</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0004622246161559</v>
+        <v>0.004509962083182</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.75531914893617</v>
+        <v>0.889830508474576</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.15</v>
+        <v>9.585000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.105360576923077</v>
+        <v>-0.0575665760869564</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.157001731080894</v>
+        <v>-0.0957575929752395</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0514649847868467</v>
+        <v>-0.0164130082957118</v>
       </c>
       <c r="N15" t="n">
-        <v>-9.16178929765886</v>
+        <v>-0.600590256514933</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0005886156454699</v>
+        <v>0.200163284018393</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.889830508474576</v>
+        <v>0.436974789915966</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.699999999999999</v>
+        <v>0.027</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0783512094933818</v>
+        <v>0.0003998357963875</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.112040968576995</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0276370958463403</v>
+        <v>0.0009977618285289</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.807744427766823</v>
+        <v>1.48087331995378</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.215422044861348</v>
+        <v>0.640815634508468</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H17" t="n">
-        <v>0.445378151260504</v>
+        <v>0.73109243697479</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.028</v>
+        <v>520</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003334094020994</v>
+        <v>-3.24555707450444</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.00047567879141</v>
+        <v>-25.4831186058935</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0009970427661509999</v>
+        <v>17.2409736258814</v>
       </c>
       <c r="N17" t="n">
-        <v>1.19074786464106</v>
+        <v>-0.624145591250854</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.474358337185107</v>
+        <v>6.02242415238723e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.243243243243243</v>
       </c>
       <c r="H18" t="n">
-        <v>0.739495798319328</v>
+        <v>0.765765765765766</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>610</v>
+        <v>0.0306042959409232</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.0026160270504013</v>
       </c>
       <c r="L18" t="n">
-        <v>-22.2954307540575</v>
+        <v>0.0010177511420315</v>
       </c>
       <c r="M18" t="n">
-        <v>26.2560202645295</v>
+        <v>0.0036959201617248</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>8.547907965114391</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0005594378660362</v>
+        <v>0.357101859999199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.288288288288288</v>
+        <v>0.0420168067226891</v>
       </c>
       <c r="H19" t="n">
-        <v>0.720720720720721</v>
+        <v>0.19327731092437</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0282942846034416</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0016763732630626</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0001893296901782</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0029240121093846</v>
+        <v>0.0003525579150579</v>
       </c>
       <c r="N19" t="n">
-        <v>5.92477698785401</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,14 +2192,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.178499524135934</v>
+        <v>0.291061423214691</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0336134453781513</v>
+        <v>0.0672268907563025</v>
       </c>
       <c r="H20" t="n">
-        <v>0.19327731092437</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.412</v>
       </c>
       <c r="K20" t="n">
-        <v>0.000127575969263</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-0.0063172419026305</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0004693783321727</v>
+        <v>0.0115296979159634</v>
       </c>
       <c r="N20" t="n">
-        <v>1.41751076958901</v>
+        <v>0.487103915501974</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0129619346179571</v>
+        <v>0.04762555118789</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0672268907563025</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.890756302521008</v>
+        <v>0.547008547008547</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3698</v>
+        <v>7.48</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0103608168147642</v>
+        <v>-0.0115190546721017</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0022028960960649</v>
+        <v>-0.0239601449108566</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0168861670132059</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.80173521221314</v>
+        <v>-0.153998057113659</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.00331876044472</v>
+        <v>0.208754063628863</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0252100840336134</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5726495726495729</v>
+        <v>0.899159663865546</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.48</v>
+        <v>0.5165999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0191109320557492</v>
+        <v>0.0049852138307552</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0319868637110017</v>
+        <v>-0.0039838158371659</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0081529017857143</v>
+        <v>0.0173528996132557</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.255493744060819</v>
+        <v>0.9650046129994651</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0139342073202829</v>
+        <v>0.0866986326550933</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0252100840336134</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.857142857142857</v>
+        <v>0.756302521008403</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.492</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0144801777170198</v>
+        <v>0.0074897470950102</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0030162209139656</v>
+        <v>-0.0017352533043851</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0266558696153875</v>
+        <v>0.0224007413094284</v>
       </c>
       <c r="N23" t="n">
-        <v>2.9431255522398</v>
+        <v>0.796781605852155</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.183035080275988</v>
+        <v>0.166728317869938</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008403361344537799</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.285714285714286</v>
+        <v>0.613445378151261</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.067</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.0005733908948194</v>
       </c>
       <c r="M24" t="n">
-        <v>0.332347588717015</v>
+        <v>0.0026244071694534</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.49766278497621</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.008043716929543599</v>
+        <v>0.166934376998617</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8067226890756301</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.85</v>
+        <v>4.36</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0232643312101911</v>
+        <v>0.09335463258785941</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0050252423893505</v>
+        <v>-0.0423889222003455</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0371594922797519</v>
+        <v>0.232363105012566</v>
       </c>
       <c r="N25" t="n">
-        <v>2.73698014237542</v>
+        <v>2.14116129788668</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.23205832299744e-05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0071942446043165</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.62589928057554</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.201403331347877</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.638655462184874</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
-        <v>0.068</v>
+        <v>1.19</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000799671592775</v>
+        <v>-0.0782678571428571</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0004993164730006</v>
+        <v>-0.110553884092535</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0023338658146964</v>
+        <v>-0.0452850203135503</v>
       </c>
       <c r="N26" t="n">
-        <v>1.17598763643388</v>
+        <v>-6.57713085234094</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>5.78267647988184e-07</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9411764705882349</v>
+        <v>0.8409090909090911</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.36</v>
+        <v>9.81</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-0.0657806776556778</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.122933345395407</v>
+        <v>-0.0945726941880452</v>
       </c>
       <c r="M27" t="n">
-        <v>0.144523039146926</v>
+        <v>-0.0400823867729818</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>-0.670547172840752</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.93191769895618e-06</v>
+        <v>0.146952087694573</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0067567567567567</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.601351351351351</v>
+        <v>0.337078651685393</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.254</v>
+        <v>0.027</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0834202866099418</v>
+        <v>0.0001991548527808</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.113318958569362</v>
+        <v>-9.081122226339999e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0508810374397998</v>
+        <v>0.000521931611358</v>
       </c>
       <c r="N28" t="n">
-        <v>-6.65233545533826</v>
+        <v>0.737610565854841</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.2918600350863e-10</v>
+        <v>0.5040151657926411</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H29" t="n">
-        <v>0.857954545454545</v>
+        <v>0.747191011235955</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>9.880000000000001</v>
+        <v>518.5</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.095326236263736</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.117413747470996</v>
+        <v>-11.9001236639207</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.06693699553000811</v>
+        <v>12.4792955664624</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.964840448013522</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0427118227745455</v>
+        <v>2.29358971350697e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.289940828402367</v>
       </c>
       <c r="H30" t="n">
-        <v>0.340782122905028</v>
+        <v>0.72189349112426</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.027</v>
+        <v>0.0276208540081681</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0003330041104088</v>
+        <v>0.0016023519518942</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.0006513179990777</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0006622581746099</v>
+        <v>0.002169880911356</v>
       </c>
       <c r="N30" t="n">
-        <v>1.23334855706992</v>
+        <v>5.80123971337179</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0369084035489591</v>
+        <v>0.0002324936091216</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.112426035502959</v>
       </c>
       <c r="H31" t="n">
-        <v>0.737430167597765</v>
+        <v>0.142011834319527</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>517</v>
+        <v>0.008</v>
       </c>
       <c r="K31" t="n">
-        <v>12.3192798541477</v>
+        <v>0.000334478021978</v>
       </c>
       <c r="L31" t="n">
-        <v>0.645672729643288</v>
+        <v>0.0001662616546894</v>
       </c>
       <c r="M31" t="n">
-        <v>25.7563180024351</v>
+        <v>0.0004993164730006</v>
       </c>
       <c r="N31" t="n">
-        <v>2.38283943020265</v>
+        <v>4.18097527472527</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.22409412149164e-05</v>
+        <v>0.518766971690144</v>
       </c>
       <c r="G32" t="n">
-        <v>0.329411764705882</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6882352941176469</v>
+        <v>0.857988165680473</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0218639147846311</v>
+        <v>0.4505</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001241511735948</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0002362856753463</v>
+        <v>-0.0067519727457882</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0020038274887911</v>
+        <v>0.0048144239736961</v>
       </c>
       <c r="N32" t="n">
-        <v>5.67835974562421</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.9266083396564e-05</v>
+        <v>0.335088353052079</v>
       </c>
       <c r="G33" t="n">
-        <v>0.114649681528662</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.152866242038217</v>
+        <v>0.548571428571429</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.008</v>
+        <v>7.48</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0004393984962406</v>
+        <v>-0.0026024225151406</v>
       </c>
       <c r="L33" t="n">
-        <v>0.000260588525462</v>
+        <v>-0.0118507772343126</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0006113249423357</v>
+        <v>0.006785907434522</v>
       </c>
       <c r="N33" t="n">
-        <v>5.49248120300752</v>
+        <v>-0.0347917448548217</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.293637595036015</v>
+        <v>0.396849165882056</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0625</v>
+        <v>0.0224719101123595</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8625</v>
+        <v>0.904494382022472</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4589</v>
+        <v>0.51675</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0020068681318681</v>
+        <v>0.0005259193998408</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0054767445846561</v>
+        <v>-0.0041358949449053</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0070835144441928</v>
+        <v>0.0057700389742478</v>
       </c>
       <c r="N34" t="n">
-        <v>0.437321449524543</v>
+        <v>0.101774436350437</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.223963226435696</v>
+        <v>0.0503071951076805</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5625</v>
+        <v>0.7247191011235951</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.48</v>
+        <v>0.895</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0045770676691728</v>
+        <v>0.0063577071655809</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0139111644750809</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.005205738273463</v>
+        <v>0.0141468279120621</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0611907442402785</v>
+        <v>0.710358342523013</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0566238752246717</v>
+        <v>0.0007059897485512</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0223463687150838</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.860335195530726</v>
+        <v>0.528089887640449</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.492</v>
+        <v>0.06375</v>
       </c>
       <c r="K36" t="n">
-        <v>0.004670350227256</v>
+        <v>0.0016073967501692</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.0007635888501742</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0109037470257522</v>
+        <v>0.0024235948477751</v>
       </c>
       <c r="N36" t="n">
-        <v>0.949258176271552</v>
+        <v>2.52140666693218</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0009866475761340001</v>
+        <v>0.331671970839563</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.726256983240223</v>
+        <v>0.932584269662921</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.84</v>
+        <v>4.52</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0152453249661298</v>
+        <v>0.033750085253379</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0064726975030434</v>
+        <v>-0.0519431512432498</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0241512605105853</v>
+        <v>0.129500009380055</v>
       </c>
       <c r="N37" t="n">
-        <v>1.81491963882497</v>
+        <v>0.746683302065908</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,46 +3822,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1.68295617795614e-06</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.5418994413407821</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.063</v>
+        <v>0.418</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0021645847113717</v>
+        <v>-0.06867702069004721</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0013087306330242</v>
+        <v>-0.113645875347977</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0029816326530612</v>
+        <v>-0.0089512258966061</v>
       </c>
       <c r="N38" t="n">
-        <v>3.43584874820908</v>
+        <v>-16.4299092559922</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3899,11 +3899,7 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,46 +3909,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0421914370862032</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.9269662921348319</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.33</v>
+        <v>107.27</v>
       </c>
       <c r="K39" t="n">
-        <v>0.109325022729618</v>
+        <v>-0.542246790879055</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0125135422576818</v>
+        <v>-15.338453254909</v>
       </c>
       <c r="M39" t="n">
-        <v>0.177999812937209</v>
+        <v>8.76781934497232</v>
       </c>
       <c r="N39" t="n">
-        <v>2.52482731477177</v>
+        <v>-0.505497148204582</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3957,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3990,11 +3986,7 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4004,7 +3996,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,7 +4011,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.110335680959923</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4031,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.441</v>
+        <v>6.06</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.06867702069004721</v>
+        <v>-0.282180337025402</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.113645875347977</v>
+        <v>-1.16305218431762</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.001717144430008</v>
+        <v>0.237005612048641</v>
       </c>
       <c r="N40" t="n">
-        <v>-15.5730205646366</v>
+        <v>-4.65644120503964</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4044,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4091,11 +4083,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4106,31 +4098,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.231216363225238</v>
+        <v>0.063424647007573</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>106.4</v>
+        <v>0.4545</v>
       </c>
       <c r="K41" t="n">
-        <v>-3.36680513525483</v>
+        <v>-0.008830856123662301</v>
       </c>
       <c r="L41" t="n">
-        <v>-15.338453254909</v>
+        <v>-0.0252946653164704</v>
       </c>
       <c r="M41" t="n">
-        <v>2.80588705827721</v>
+        <v>-0.0001735746163776</v>
       </c>
       <c r="N41" t="n">
-        <v>-3.16429054065303</v>
+        <v>-1.94298264547025</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4139,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4178,11 +4170,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4193,7 +4185,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.231216363225238</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4205,19 +4197,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.91</v>
+        <v>106.835</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.325964975179261</v>
+        <v>0.328623662306777</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.16305218431762</v>
+        <v>-1.70856589878122</v>
       </c>
       <c r="M42" t="n">
-        <v>0.117595812925339</v>
+        <v>2.57122774941731</v>
       </c>
       <c r="N42" t="n">
-        <v>-5.51548181352387</v>
+        <v>0.307599253340925</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4226,7 +4218,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4257,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4280,7 +4272,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.087654040404137</v>
+        <v>0.762862824616335</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4292,19 +4284,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.468</v>
+        <v>5.985</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0103223906143732</v>
+        <v>0.0713897727272727</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0304539872671452</v>
+        <v>-0.102185816674321</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0029573145646694</v>
+        <v>0.234230317893427</v>
       </c>
       <c r="N43" t="n">
-        <v>-2.2056390201652</v>
+        <v>1.19281157439052</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4305,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4343,180 +4335,6 @@
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mangaatua at d/s Woodville STP</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>10</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.393807883351103</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>105.7</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.508350730688935</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-1.69855443789247</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.0109444248786</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-0.480937304341471</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>1842194.8</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5530097.413</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Upper Gorge</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Mana_9c</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Mangaatua at d/s Woodville STP</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>10</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.541517381685568</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.0473808106881953</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-0.189557165736091</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.253535443317207</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.801705764605673</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>1842194.8</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5530097.413</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Upper Gorge</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Mana_9c</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangaatuaatdsWoodvilleSTP_95cf3dddd1.xlsx
+++ b/trend_results/Rivers/MangaatuaatdsWoodvilleSTP_95cf3dddd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="64">
   <si>
     <t>site name</t>
   </si>
@@ -136,43 +136,49 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>Extremely unlikely increasing</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -651,7 +657,7 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.0031406164238839</v>
+        <v>0.271953796395091</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -663,19 +669,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.68</v>
+        <v>0.1775</v>
       </c>
       <c r="K2">
-        <v>-0.270302107728337</v>
+        <v>-0.0574213943950786</v>
       </c>
       <c r="L2">
-        <v>-0.360244097896301</v>
+        <v>-0.220565164748366</v>
       </c>
       <c r="M2">
-        <v>-0.130645953404833</v>
+        <v>0.0395309467996187</v>
       </c>
       <c r="N2">
-        <v>-39.7503099600496</v>
+        <v>-32.3500813493401</v>
       </c>
       <c r="O2" t="s">
         <v>42</v>
@@ -690,19 +696,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -722,31 +728,31 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.040427799185026</v>
+        <v>0.641599741502753</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.932203389830508</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.57</v>
+        <v>9.51</v>
       </c>
       <c r="K3">
-        <v>-0.091129483723824</v>
+        <v>0.0347228106432442</v>
       </c>
       <c r="L3">
-        <v>-0.172566049988142</v>
+        <v>-0.0356814781637305</v>
       </c>
       <c r="M3">
-        <v>-0.0068275229606887</v>
+        <v>0.148295417714232</v>
       </c>
       <c r="N3">
-        <v>-0.952241209235361</v>
+        <v>0.365118934208667</v>
       </c>
       <c r="O3" t="s">
         <v>42</v>
@@ -761,19 +767,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -793,31 +799,31 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.152044660990889</v>
+        <v>0.82202964761871</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.627118644067797</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
       <c r="K4">
-        <v>0.0012423469387755</v>
+        <v>-0.0011101823708206</v>
       </c>
       <c r="L4">
-        <v>-0.0005559287942902</v>
+        <v>-0.0032611607142857</v>
       </c>
       <c r="M4">
-        <v>0.0037956868777465</v>
+        <v>0.0006956999987562</v>
       </c>
       <c r="N4">
-        <v>4.14115646258504</v>
+        <v>-4.26993219546411</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
@@ -832,19 +838,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,37 +870,37 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.559790136852505</v>
+        <v>0.875153923808352</v>
       </c>
       <c r="G5">
         <v>0.0338983050847458</v>
       </c>
       <c r="H5">
-        <v>0.847457627118644</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="K5">
-        <v>-6.49111414900889</v>
+        <v>-41.4007025761124</v>
       </c>
       <c r="L5">
-        <v>-65.900945742586</v>
+        <v>-124.270285402966</v>
       </c>
       <c r="M5">
-        <v>59.6697669267198</v>
+        <v>17.2052798885202</v>
       </c>
       <c r="N5">
-        <v>-1.54550336881164</v>
+        <v>-9.03945471094157</v>
       </c>
       <c r="O5" t="s">
         <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>1842194.8</v>
@@ -903,19 +909,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -929,43 +935,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>0.0919928178907644</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6">
-        <v>0.0465222392856336</v>
-      </c>
-      <c r="G6">
-        <v>0.145454545454545</v>
-      </c>
-      <c r="H6">
-        <v>0.872727272727273</v>
-      </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0344960531805542</v>
+        <v>0.0373230872720341</v>
       </c>
       <c r="K6">
-        <v>0.0041882575485919</v>
+        <v>0.0027330681655677</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-0.0008318091079722</v>
       </c>
       <c r="M6">
-        <v>0.009191038778227901</v>
+        <v>0.0072641469215012</v>
       </c>
       <c r="N6">
-        <v>12.1412659201052</v>
+        <v>7.32272800920104</v>
       </c>
       <c r="O6" t="s">
         <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q6">
         <v>1842194.8</v>
@@ -974,19 +980,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1006,37 +1012,37 @@
         <v>39</v>
       </c>
       <c r="F7">
-        <v>0.128050741168272</v>
+        <v>0.96077673864756</v>
       </c>
       <c r="G7">
-        <v>0.0338983050847458</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H7">
-        <v>0.355932203389831</v>
+        <v>0.338983050847458</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="K7">
-        <v>0.0004969387755102</v>
+        <v>-0.0006324675324675001</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-0.0012713569923885</v>
       </c>
       <c r="M7">
-        <v>0.0011343167701863</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>5.52154195011338</v>
+        <v>-7.90584415584416</v>
       </c>
       <c r="O7" t="s">
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q7">
         <v>1842194.8</v>
@@ -1045,19 +1051,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1077,37 +1083,37 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.0299659701639453</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
         <v>0.0169491525423729</v>
       </c>
       <c r="H8">
-        <v>0.9830508474576271</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.348</v>
+        <v>0.304</v>
       </c>
       <c r="K8">
-        <v>0.0182682613439192</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="L8">
-        <v>0.0017650806648071</v>
+        <v>-0.0330713210180676</v>
       </c>
       <c r="M8">
-        <v>0.0395372885756075</v>
+        <v>0.0125248511104131</v>
       </c>
       <c r="N8">
-        <v>5.24950038618369</v>
+        <v>0.109324864709544</v>
       </c>
       <c r="O8" t="s">
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8">
         <v>1842194.8</v>
@@ -1116,19 +1122,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1148,37 +1154,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.101118155187692</v>
+        <v>0.772176400042723</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.741379310344828</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.46</v>
+        <v>7.45</v>
       </c>
       <c r="K9">
-        <v>-0.0289880952380972</v>
+        <v>0.0171478873239435</v>
       </c>
       <c r="L9">
-        <v>-0.06957676830399941</v>
+        <v>-0.0215416120576671</v>
       </c>
       <c r="M9">
-        <v>0.008567724130204899</v>
+        <v>0.0516298496505968</v>
       </c>
       <c r="N9">
-        <v>-0.388580365121946</v>
+        <v>0.230172984214007</v>
       </c>
       <c r="O9" t="s">
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1842194.8</v>
@@ -1187,16 +1193,16 @@
         <v>5530097.413</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1216,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.0484690942141995</v>
+        <v>0.557532021062113</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1228,25 +1234,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.492</v>
+        <v>0.435</v>
       </c>
       <c r="K10">
-        <v>0.0299951765506153</v>
+        <v>-0.0030103021978022</v>
       </c>
       <c r="L10">
-        <v>0.0008899295396127</v>
+        <v>-0.0351531364170324</v>
       </c>
       <c r="M10">
-        <v>0.0613856462366846</v>
+        <v>0.021587786007964</v>
       </c>
       <c r="N10">
-        <v>6.09658059971856</v>
+        <v>-0.6920234937476319</v>
       </c>
       <c r="O10" t="s">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1842194.8</v>
@@ -1255,19 +1261,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1287,37 +1293,37 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.0341280451284221</v>
+        <v>0.614457968297824</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.76271186440678</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="K11">
-        <v>0.0395161891679749</v>
+        <v>-0.0062414559125085</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.0637826939158237</v>
       </c>
       <c r="M11">
-        <v>0.0728967552135604</v>
+        <v>0.0234170954588256</v>
       </c>
       <c r="N11">
-        <v>4.44002125482864</v>
+        <v>-0.79005771044412</v>
       </c>
       <c r="O11" t="s">
         <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q11">
         <v>1842194.8</v>
@@ -1326,19 +1332,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1358,31 +1364,31 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.143145454274385</v>
+        <v>0.747713929834677</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.76271186440678</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.068</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K12">
-        <v>0.0034403453689168</v>
+        <v>-0.0019325396825396</v>
       </c>
       <c r="L12">
-        <v>-0.001617063884123</v>
+        <v>-0.0075396921402025</v>
       </c>
       <c r="M12">
-        <v>0.0085743620318262</v>
+        <v>0.0029206446925315</v>
       </c>
       <c r="N12">
-        <v>5.05933142487764</v>
+        <v>-2.76077097505669</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
@@ -1397,19 +1403,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1429,37 +1435,37 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.193973163186924</v>
+        <v>0.342567669376422</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.932203389830508</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.3</v>
+        <v>4.67</v>
       </c>
       <c r="K13">
-        <v>0.268139880952381</v>
+        <v>0.143172909407665</v>
       </c>
       <c r="L13">
-        <v>-0.22771963148931</v>
+        <v>-0.372042734559426</v>
       </c>
       <c r="M13">
-        <v>0.752412601249152</v>
+        <v>0.664813521250441</v>
       </c>
       <c r="N13">
-        <v>6.23581118493909</v>
+        <v>3.06580105797999</v>
       </c>
       <c r="O13" t="s">
         <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1842194.8</v>
@@ -1468,19 +1474,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1500,37 +1506,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>1.72989245980082E-05</v>
+        <v>1.88656550470512E-05</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.802325581395349</v>
+        <v>0.82051282051282</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="K14">
-        <v>-0.135147200772201</v>
+        <v>-0.138907818532819</v>
       </c>
       <c r="L14">
-        <v>-0.173928571428571</v>
+        <v>-0.176434000187669</v>
       </c>
       <c r="M14">
-        <v>-0.08348899539376541</v>
+        <v>-0.0911613931468378</v>
       </c>
       <c r="N14">
-        <v>-12.3988257589175</v>
+        <v>-13.4861959740601</v>
       </c>
       <c r="O14" t="s">
         <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1842194.8</v>
@@ -1539,19 +1545,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1571,37 +1577,37 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.004509962083182</v>
+        <v>0.0317542465988691</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.889830508474576</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.585000000000001</v>
+        <v>9.56</v>
       </c>
       <c r="K15">
-        <v>-0.0575665760869564</v>
+        <v>-0.0279885057471265</v>
       </c>
       <c r="L15">
-        <v>-0.0957575929752395</v>
+        <v>-0.0620637775325256</v>
       </c>
       <c r="M15">
-        <v>-0.0164130082957118</v>
+        <v>-0.0040076755272096</v>
       </c>
       <c r="N15">
-        <v>-0.600590256514933</v>
+        <v>-0.29276679651806</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q15">
         <v>1842194.8</v>
@@ -1610,19 +1616,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1636,43 +1642,43 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>0.200163284018393</v>
+        <v>0.652054868017926</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.436974789915966</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="K16">
-        <v>0.0003998357963875</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.000332347588717</v>
+        <v>-0.0007814162980087</v>
       </c>
       <c r="M16">
-        <v>0.0009977618285289</v>
+        <v>0.0004683739949238</v>
       </c>
       <c r="N16">
-        <v>1.48087331995378</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
         <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q16">
         <v>1842194.8</v>
@@ -1681,19 +1687,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1713,37 +1719,37 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.640815634508468</v>
+        <v>0.6795005076714909</v>
       </c>
       <c r="G17">
         <v>0.0168067226890756</v>
       </c>
       <c r="H17">
-        <v>0.73109243697479</v>
+        <v>0.747899159663866</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>520</v>
+        <v>464.8</v>
       </c>
       <c r="K17">
-        <v>-3.24555707450444</v>
+        <v>-5.27783251231527</v>
       </c>
       <c r="L17">
-        <v>-25.4831186058935</v>
+        <v>-26.7721081989507</v>
       </c>
       <c r="M17">
-        <v>17.2409736258814</v>
+        <v>14.4147025373521</v>
       </c>
       <c r="N17">
-        <v>-0.624145591250854</v>
+        <v>-1.13550613431912</v>
       </c>
       <c r="O17" t="s">
         <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q17">
         <v>1842194.8</v>
@@ -1752,19 +1758,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1781,40 +1787,40 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18">
-        <v>6.02242415238723E-05</v>
+        <v>8.1979849572275E-06</v>
       </c>
       <c r="G18">
-        <v>0.243243243243243</v>
+        <v>0.205357142857143</v>
       </c>
       <c r="H18">
-        <v>0.765765765765766</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.0306042959409232</v>
+        <v>0.0327494125012408</v>
       </c>
       <c r="K18">
-        <v>0.0026160270504013</v>
+        <v>0.0027498115884771</v>
       </c>
       <c r="L18">
-        <v>0.0010177511420315</v>
+        <v>0.0016865165667456</v>
       </c>
       <c r="M18">
-        <v>0.0036959201617248</v>
+        <v>0.0041318139954211</v>
       </c>
       <c r="N18">
-        <v>8.547907965114391</v>
+        <v>8.396521886836689</v>
       </c>
       <c r="O18" t="s">
         <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q18">
         <v>1842194.8</v>
@@ -1823,19 +1829,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1852,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19">
-        <v>0.357101859999199</v>
+        <v>0.987417513880134</v>
       </c>
       <c r="G19">
         <v>0.0420168067226891</v>
       </c>
       <c r="H19">
-        <v>0.19327731092437</v>
+        <v>0.184873949579832</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1870,22 +1876,22 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.0003410364145658</v>
       </c>
       <c r="L19">
-        <v>-0.0001893296901782</v>
+        <v>-0.0006148827840446</v>
       </c>
       <c r="M19">
-        <v>0.0003525579150579</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-3.78929349517585</v>
       </c>
       <c r="O19" t="s">
         <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q19">
         <v>1842194.8</v>
@@ -1894,19 +1900,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1926,10 +1932,10 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>0.291061423214691</v>
+        <v>0.768081293846599</v>
       </c>
       <c r="G20">
-        <v>0.0672268907563025</v>
+        <v>0.0336134453781513</v>
       </c>
       <c r="H20">
         <v>0.890756302521008</v>
@@ -1938,19 +1944,19 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.412</v>
+        <v>0.35</v>
       </c>
       <c r="K20">
-        <v>0.0020068681318681</v>
+        <v>-0.0025890130861504</v>
       </c>
       <c r="L20">
-        <v>-0.0063172419026305</v>
+        <v>-0.0133607907525963</v>
       </c>
       <c r="M20">
-        <v>0.0115296979159634</v>
+        <v>0.003656415739547</v>
       </c>
       <c r="N20">
-        <v>0.487103915501974</v>
+        <v>-0.739718024614426</v>
       </c>
       <c r="O20" t="s">
         <v>42</v>
@@ -1965,19 +1971,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1997,13 +2003,13 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.04762555118789</v>
+        <v>0.209734694107435</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.547008547008547</v>
+        <v>0.567796610169492</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2012,22 +2018,22 @@
         <v>7.48</v>
       </c>
       <c r="K21">
-        <v>-0.0115190546721017</v>
+        <v>-0.006441798941799</v>
       </c>
       <c r="L21">
-        <v>-0.0239601449108566</v>
+        <v>-0.0181998413801349</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0063244645573157</v>
       </c>
       <c r="N21">
-        <v>-0.153998057113659</v>
+        <v>-0.0861203067085427</v>
       </c>
       <c r="O21" t="s">
         <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q21">
         <v>1842194.8</v>
@@ -2036,16 +2042,16 @@
         <v>5530097.413</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2065,31 +2071,31 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.208754063628863</v>
+        <v>0.681036184446149</v>
       </c>
       <c r="G22">
         <v>0.0252100840336134</v>
       </c>
       <c r="H22">
-        <v>0.899159663865546</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.5165999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="K22">
-        <v>0.0049852138307552</v>
+        <v>-0.0030103021978022</v>
       </c>
       <c r="L22">
-        <v>-0.0039838158371659</v>
+        <v>-0.0113146776291853</v>
       </c>
       <c r="M22">
-        <v>0.0173528996132557</v>
+        <v>0.0055172003050691</v>
       </c>
       <c r="N22">
-        <v>0.9650046129994651</v>
+        <v>-0.640489829319617</v>
       </c>
       <c r="O22" t="s">
         <v>42</v>
@@ -2104,19 +2110,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2136,37 +2142,37 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.0866986326550933</v>
+        <v>0.681381794750489</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.756302521008403</v>
+        <v>0.6890756302521009</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="K23">
-        <v>0.0074897470950102</v>
+        <v>-0.0024965823650034</v>
       </c>
       <c r="L23">
-        <v>-0.0017352533043851</v>
+        <v>-0.0232621695901034</v>
       </c>
       <c r="M23">
-        <v>0.0224007413094284</v>
+        <v>0.009938775510203999</v>
       </c>
       <c r="N23">
-        <v>0.796781605852155</v>
+        <v>-0.277398040555936</v>
       </c>
       <c r="O23" t="s">
         <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q23">
         <v>1842194.8</v>
@@ -2175,19 +2181,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2204,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>0.166728317869938</v>
+        <v>0.505499030419387</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.613445378151261</v>
+        <v>0.621848739495798</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2222,22 +2228,22 @@
         <v>0.067</v>
       </c>
       <c r="K24">
-        <v>0.001003434065934</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>-0.0005733908948194</v>
+        <v>-0.0015172073061877</v>
       </c>
       <c r="M24">
-        <v>0.0026244071694534</v>
+        <v>0.0016837818202228</v>
       </c>
       <c r="N24">
-        <v>1.49766278497621</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1842194.8</v>
@@ -2246,19 +2252,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,31 +2290,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.9411764705882349</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.36</v>
+        <v>4.56</v>
       </c>
       <c r="K25">
-        <v>0.09335463258785941</v>
+        <v>0.0954756838905774</v>
       </c>
       <c r="L25">
-        <v>-0.0423889222003455</v>
+        <v>-0.0516524265992534</v>
       </c>
       <c r="M25">
-        <v>0.232363105012566</v>
+        <v>0.268320937046387</v>
       </c>
       <c r="N25">
-        <v>2.14116129788668</v>
+        <v>2.09376499760038</v>
       </c>
       <c r="O25" t="s">
         <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q25">
         <v>1842194.8</v>
@@ -2317,19 +2323,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2349,37 +2355,37 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>1.23205832299744E-05</v>
+        <v>3.44669151489674E-05</v>
       </c>
       <c r="G26">
-        <v>0.0071942446043165</v>
+        <v>0.0076335877862595</v>
       </c>
       <c r="H26">
-        <v>0.62589928057554</v>
+        <v>0.66412213740458</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="K26">
-        <v>-0.0782678571428571</v>
+        <v>-0.0767331932773109</v>
       </c>
       <c r="L26">
-        <v>-0.110553884092535</v>
+        <v>-0.11005931434786</v>
       </c>
       <c r="M26">
-        <v>-0.0452850203135503</v>
+        <v>-0.0441443227142514</v>
       </c>
       <c r="N26">
-        <v>-6.57713085234094</v>
+        <v>-6.9757448433919</v>
       </c>
       <c r="O26" t="s">
         <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q26">
         <v>1842194.8</v>
@@ -2388,19 +2394,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2420,37 +2426,37 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>5.78267647988184E-07</v>
+        <v>2.0700067160373E-06</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.8409090909090911</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9.81</v>
+        <v>9.75</v>
       </c>
       <c r="K27">
-        <v>-0.0657806776556778</v>
+        <v>-0.047663118131868</v>
       </c>
       <c r="L27">
-        <v>-0.0945726941880452</v>
+        <v>-0.07158080742993481</v>
       </c>
       <c r="M27">
-        <v>-0.0400823867729818</v>
+        <v>-0.0257012764001605</v>
       </c>
       <c r="N27">
-        <v>-0.670547172840752</v>
+        <v>-0.488852493660185</v>
       </c>
       <c r="O27" t="s">
         <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q27">
         <v>1842194.8</v>
@@ -2459,19 +2465,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2488,40 +2494,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>0.146952087694573</v>
+        <v>0.369779106006853</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.337078651685393</v>
+        <v>0.329608938547486</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="K28">
-        <v>0.0001991548527808</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>-9.081122226339999E-05</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M28">
-        <v>0.000521931611358</v>
+        <v>0.0003832586726313</v>
       </c>
       <c r="N28">
-        <v>0.737610565854841</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
         <v>42</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q28">
         <v>1842194.8</v>
@@ -2530,19 +2536,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2559,40 +2565,40 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F29">
-        <v>0.5040151657926411</v>
+        <v>0.873694819529321</v>
       </c>
       <c r="G29">
-        <v>0.0112359550561798</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="H29">
-        <v>0.747191011235955</v>
+        <v>0.770949720670391</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>518.5</v>
+        <v>520</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>-8.01768292682927</v>
       </c>
       <c r="L29">
-        <v>-11.9001236639207</v>
+        <v>-19.9908957691369</v>
       </c>
       <c r="M29">
-        <v>12.4792955664624</v>
+        <v>3.70125949197979</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-1.54186210131332</v>
       </c>
       <c r="O29" t="s">
         <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q29">
         <v>1842194.8</v>
@@ -2601,19 +2607,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2633,37 +2639,37 @@
         <v>39</v>
       </c>
       <c r="F30">
-        <v>2.29358971350697E-06</v>
+        <v>3.36435334259199E-06</v>
       </c>
       <c r="G30">
-        <v>0.289940828402367</v>
+        <v>0.258823529411765</v>
       </c>
       <c r="H30">
-        <v>0.72189349112426</v>
+        <v>0.752941176470588</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30">
-        <v>0.0276208540081681</v>
+        <v>0.029577193947443</v>
       </c>
       <c r="K30">
-        <v>0.0016023519518942</v>
+        <v>0.0016419620834557</v>
       </c>
       <c r="L30">
-        <v>0.0006513179990777</v>
+        <v>0.0008182541358226001</v>
       </c>
       <c r="M30">
-        <v>0.002169880911356</v>
+        <v>0.0022421350825314</v>
       </c>
       <c r="N30">
-        <v>5.80123971337179</v>
+        <v>5.55144645017161</v>
       </c>
       <c r="O30" t="s">
         <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q30">
         <v>1842194.8</v>
@@ -2672,19 +2678,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2698,19 +2704,19 @@
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>39</v>
       </c>
       <c r="F31">
-        <v>0.0002324936091216</v>
+        <v>0.0114900201533514</v>
       </c>
       <c r="G31">
-        <v>0.112426035502959</v>
+        <v>0.0949720670391061</v>
       </c>
       <c r="H31">
-        <v>0.142011834319527</v>
+        <v>0.134078212290503</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2719,22 +2725,22 @@
         <v>0.008</v>
       </c>
       <c r="K31">
-        <v>0.000334478021978</v>
+        <v>0.0001830827067669</v>
       </c>
       <c r="L31">
-        <v>0.0001662616546894</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0004993164730006</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="N31">
-        <v>4.18097527472527</v>
+        <v>2.28853383458647</v>
       </c>
       <c r="O31" t="s">
         <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q31">
         <v>1842194.8</v>
@@ -2743,19 +2749,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2772,40 +2778,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>0.518766971690144</v>
+        <v>0.825927687523469</v>
       </c>
       <c r="G32">
-        <v>0.0650887573964497</v>
+        <v>0.0614525139664804</v>
       </c>
       <c r="H32">
-        <v>0.857988165680473</v>
+        <v>0.849162011173184</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.4505</v>
+        <v>0.39</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>-0.002739518784561</v>
       </c>
       <c r="L32">
-        <v>-0.0067519727457882</v>
+        <v>-0.0091786478960107</v>
       </c>
       <c r="M32">
-        <v>0.0048144239736961</v>
+        <v>0.0020004765295644</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>-0.7024407139900229</v>
       </c>
       <c r="O32" t="s">
         <v>42</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q32">
         <v>1842194.8</v>
@@ -2814,19 +2820,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,31 +2852,31 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.335088353052079</v>
+        <v>0.024746258662628</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.548571428571429</v>
+        <v>0.5284090909090911</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.48</v>
+        <v>7.49</v>
       </c>
       <c r="K33">
-        <v>-0.0026024225151406</v>
+        <v>-0.0100022820629849</v>
       </c>
       <c r="L33">
-        <v>-0.0118507772343126</v>
+        <v>-0.0188597246127365</v>
       </c>
       <c r="M33">
-        <v>0.006785907434522</v>
+        <v>-0.0016705139420589</v>
       </c>
       <c r="N33">
-        <v>-0.0347917448548217</v>
+        <v>-0.13354181659526</v>
       </c>
       <c r="O33" t="s">
         <v>42</v>
@@ -2885,16 +2891,16 @@
         <v>5530097.413</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2914,37 +2920,37 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.396849165882056</v>
+        <v>0.557286333031192</v>
       </c>
       <c r="G34">
-        <v>0.0224719101123595</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="H34">
-        <v>0.904494382022472</v>
+        <v>0.88268156424581</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0.51675</v>
+        <v>0.502</v>
       </c>
       <c r="K34">
-        <v>0.0005259193998408</v>
+        <v>-0.0002273613122886</v>
       </c>
       <c r="L34">
-        <v>-0.0041358949449053</v>
+        <v>-0.0060094204802068</v>
       </c>
       <c r="M34">
-        <v>0.0057700389742478</v>
+        <v>0.0045906234444997</v>
       </c>
       <c r="N34">
-        <v>0.101774436350437</v>
+        <v>-0.0452910980654648</v>
       </c>
       <c r="O34" t="s">
         <v>42</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q34">
         <v>1842194.8</v>
@@ -2953,19 +2959,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2985,37 +2991,37 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.0503071951076805</v>
+        <v>0.364630080874449</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.7247191011235951</v>
+        <v>0.670391061452514</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.895</v>
+        <v>0.84</v>
       </c>
       <c r="K35">
-        <v>0.0063577071655809</v>
+        <v>0.0011843870157602</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-0.0049856731854723</v>
       </c>
       <c r="M35">
-        <v>0.0141468279120621</v>
+        <v>0.0099528384306138</v>
       </c>
       <c r="N35">
-        <v>0.710358342523013</v>
+        <v>0.140998454257175</v>
       </c>
       <c r="O35" t="s">
         <v>42</v>
       </c>
       <c r="P35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q35">
         <v>1842194.8</v>
@@ -3024,19 +3030,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3056,37 +3062,37 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.0007059897485512</v>
+        <v>0.0172161303095173</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.528089887640449</v>
+        <v>0.5251396648044691</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.06375</v>
+        <v>0.065</v>
       </c>
       <c r="K36">
-        <v>0.0016073967501692</v>
+        <v>0.0009722715173025</v>
       </c>
       <c r="L36">
-        <v>0.0007635888501742</v>
+        <v>0.0002054900563779</v>
       </c>
       <c r="M36">
-        <v>0.0024235948477751</v>
+        <v>0.001776314171931</v>
       </c>
       <c r="N36">
-        <v>2.52140666693218</v>
+        <v>1.49580233431165</v>
       </c>
       <c r="O36" t="s">
         <v>42</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q36">
         <v>1842194.8</v>
@@ -3095,19 +3101,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3127,37 +3133,37 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.331671970839563</v>
+        <v>0.5910927966339</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.932584269662921</v>
+        <v>0.927374301675978</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>4.52</v>
+        <v>4.56</v>
       </c>
       <c r="K37">
-        <v>0.033750085253379</v>
+        <v>-0.0117233133607714</v>
       </c>
       <c r="L37">
-        <v>-0.0519431512432498</v>
+        <v>-0.102077997983537</v>
       </c>
       <c r="M37">
-        <v>0.129500009380055</v>
+        <v>0.0821377123466111</v>
       </c>
       <c r="N37">
-        <v>0.746683302065908</v>
+        <v>-0.257090205280075</v>
       </c>
       <c r="O37" t="s">
         <v>42</v>
       </c>
       <c r="P37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q37">
         <v>1842194.8</v>
@@ -3166,19 +3172,19 @@
         <v>5530097.413</v>
       </c>
       <c r="S37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3198,7 +3204,7 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.110335680959923</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3210,25 +3216,25 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.418</v>
+        <v>0.41</v>
       </c>
       <c r="K38">
-        <v>-0.06867702069004721</v>
+        <v>-0.0206117283763737</v>
       </c>
       <c r="L38">
-        <v>-0.113645875347977</v>
+        <v>-0.111541294057361</v>
       </c>
       <c r="M38">
-        <v>-0.0089512258966061</v>
+        <v>0.019390082856709</v>
       </c>
       <c r="N38">
-        <v>-16.4299092559922</v>
+        <v>-5.02725082350579</v>
       </c>
       <c r="O38" t="s">
         <v>42</v>
       </c>
       <c r="P38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q38">
         <v>1842194.8</v>
@@ -3237,16 +3243,16 @@
         <v>5530097.413</v>
       </c>
       <c r="S38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3266,7 +3272,7 @@
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3281,22 +3287,22 @@
         <v>107.27</v>
       </c>
       <c r="K39">
-        <v>-0.542246790879055</v>
+        <v>4.41169183865044</v>
       </c>
       <c r="L39">
-        <v>-15.338453254909</v>
+        <v>-14.6301282483937</v>
       </c>
       <c r="M39">
         <v>8.76781934497232</v>
       </c>
       <c r="N39">
-        <v>-0.505497148204582</v>
+        <v>4.11269864701262</v>
       </c>
       <c r="O39" t="s">
         <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q39">
         <v>1842194.8</v>
@@ -3305,16 +3311,16 @@
         <v>5530097.413</v>
       </c>
       <c r="S39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3334,7 +3340,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>0.40324797025367</v>
+        <v>0.5</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3346,25 +3352,25 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>6.06</v>
+        <v>5.83</v>
       </c>
       <c r="K40">
-        <v>-0.282180337025402</v>
+        <v>0.102236982133429</v>
       </c>
       <c r="L40">
-        <v>-1.16305218431762</v>
+        <v>-0.948883607089998</v>
       </c>
       <c r="M40">
-        <v>0.237005612048641</v>
+        <v>0.281701860981295</v>
       </c>
       <c r="N40">
-        <v>-4.65644120503964</v>
+        <v>1.75363605717718</v>
       </c>
       <c r="O40" t="s">
         <v>42</v>
       </c>
       <c r="P40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q40">
         <v>1842194.8</v>
@@ -3373,16 +3379,16 @@
         <v>5530097.413</v>
       </c>
       <c r="S40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3402,7 +3408,7 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.063424647007573</v>
+        <v>0.029657203235177</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3414,25 +3420,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.4545</v>
+        <v>0.4295</v>
       </c>
       <c r="K41">
-        <v>-0.008830856123662301</v>
+        <v>-0.0119031382015691</v>
       </c>
       <c r="L41">
-        <v>-0.0252946653164704</v>
+        <v>-0.0300606061887584</v>
       </c>
       <c r="M41">
-        <v>-0.0001735746163776</v>
+        <v>-0.0030060796771061</v>
       </c>
       <c r="N41">
-        <v>-1.94298264547025</v>
+        <v>-2.77139422620934</v>
       </c>
       <c r="O41" t="s">
         <v>42</v>
       </c>
       <c r="P41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q41">
         <v>1842194.8</v>
@@ -3441,16 +3447,16 @@
         <v>5530097.413</v>
       </c>
       <c r="S41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3470,7 +3476,7 @@
         <v>39</v>
       </c>
       <c r="F42">
-        <v>0.570986171506239</v>
+        <v>0.5</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3482,25 +3488,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>106.835</v>
+        <v>107.92</v>
       </c>
       <c r="K42">
-        <v>0.328623662306777</v>
+        <v>0.318723671013036</v>
       </c>
       <c r="L42">
-        <v>-1.70856589878122</v>
+        <v>-2.32087640678749</v>
       </c>
       <c r="M42">
-        <v>2.57122774941731</v>
+        <v>2.15375077244228</v>
       </c>
       <c r="N42">
-        <v>0.307599253340925</v>
+        <v>0.295333275586579</v>
       </c>
       <c r="O42" t="s">
         <v>42</v>
       </c>
       <c r="P42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q42">
         <v>1842194.8</v>
@@ -3509,16 +3515,16 @@
         <v>5530097.413</v>
       </c>
       <c r="S42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3538,7 +3544,7 @@
         <v>39</v>
       </c>
       <c r="F43">
-        <v>0.762862824616335</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3553,22 +3559,22 @@
         <v>5.985</v>
       </c>
       <c r="K43">
-        <v>0.0713897727272727</v>
+        <v>-0.025683569979716</v>
       </c>
       <c r="L43">
-        <v>-0.102185816674321</v>
+        <v>-0.144873180145463</v>
       </c>
       <c r="M43">
-        <v>0.234230317893427</v>
+        <v>0.105822359440362</v>
       </c>
       <c r="N43">
-        <v>1.19281157439052</v>
+        <v>-0.429132330488155</v>
       </c>
       <c r="O43" t="s">
         <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q43">
         <v>1842194.8</v>
@@ -3577,16 +3583,16 @@
         <v>5530097.413</v>
       </c>
       <c r="S43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
